--- a/healthman-mock/v2/data/classes/公共管理学院.xlsx
+++ b/healthman-mock/v2/data/classes/公共管理学院.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -452,12 +451,12 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>录入年份</t>
+          <t>年级</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>年级</t>
+          <t>教师工号</t>
         </is>
       </c>
     </row>
@@ -477,12 +476,14 @@
           <t>公共管理学院</t>
         </is>
       </c>
-      <c r="D2" t="n">
-        <v>2019</v>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000963</t>
         </is>
       </c>
     </row>
@@ -502,12 +503,14 @@
           <t>公共管理学院</t>
         </is>
       </c>
-      <c r="D3" t="n">
-        <v>2019</v>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>001029</t>
         </is>
       </c>
     </row>
@@ -527,12 +530,14 @@
           <t>公共管理学院</t>
         </is>
       </c>
-      <c r="D4" t="n">
-        <v>2019</v>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000199</t>
         </is>
       </c>
     </row>
@@ -552,12 +557,14 @@
           <t>公共管理学院</t>
         </is>
       </c>
-      <c r="D5" t="n">
-        <v>2019</v>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000639</t>
         </is>
       </c>
     </row>
@@ -577,12 +584,14 @@
           <t>公共管理学院</t>
         </is>
       </c>
-      <c r="D6" t="n">
-        <v>2019</v>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000493</t>
         </is>
       </c>
     </row>
@@ -602,12 +611,14 @@
           <t>公共管理学院</t>
         </is>
       </c>
-      <c r="D7" t="n">
-        <v>2019</v>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000696</t>
         </is>
       </c>
     </row>
@@ -627,12 +638,14 @@
           <t>公共管理学院</t>
         </is>
       </c>
-      <c r="D8" t="n">
-        <v>2019</v>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000118</t>
         </is>
       </c>
     </row>
@@ -652,12 +665,14 @@
           <t>公共管理学院</t>
         </is>
       </c>
-      <c r="D9" t="n">
-        <v>2019</v>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000307</t>
         </is>
       </c>
     </row>
@@ -677,12 +692,14 @@
           <t>公共管理学院</t>
         </is>
       </c>
-      <c r="D10" t="n">
-        <v>2020</v>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000720</t>
         </is>
       </c>
     </row>
@@ -702,12 +719,14 @@
           <t>公共管理学院</t>
         </is>
       </c>
-      <c r="D11" t="n">
-        <v>2020</v>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000683</t>
         </is>
       </c>
     </row>
@@ -727,12 +746,14 @@
           <t>公共管理学院</t>
         </is>
       </c>
-      <c r="D12" t="n">
-        <v>2020</v>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000619</t>
         </is>
       </c>
     </row>
@@ -752,12 +773,14 @@
           <t>公共管理学院</t>
         </is>
       </c>
-      <c r="D13" t="n">
-        <v>2020</v>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000996</t>
         </is>
       </c>
     </row>
@@ -777,12 +800,14 @@
           <t>公共管理学院</t>
         </is>
       </c>
-      <c r="D14" t="n">
-        <v>2020</v>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000181</t>
         </is>
       </c>
     </row>
@@ -802,12 +827,14 @@
           <t>公共管理学院</t>
         </is>
       </c>
-      <c r="D15" t="n">
-        <v>2020</v>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000219</t>
         </is>
       </c>
     </row>
@@ -827,12 +854,14 @@
           <t>公共管理学院</t>
         </is>
       </c>
-      <c r="D16" t="n">
-        <v>2021</v>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>001009</t>
         </is>
       </c>
     </row>
@@ -852,12 +881,14 @@
           <t>公共管理学院</t>
         </is>
       </c>
-      <c r="D17" t="n">
-        <v>2021</v>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>001031</t>
         </is>
       </c>
     </row>
@@ -877,12 +908,14 @@
           <t>公共管理学院</t>
         </is>
       </c>
-      <c r="D18" t="n">
-        <v>2021</v>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000781</t>
         </is>
       </c>
     </row>
@@ -902,12 +935,14 @@
           <t>公共管理学院</t>
         </is>
       </c>
-      <c r="D19" t="n">
-        <v>2021</v>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000575</t>
         </is>
       </c>
     </row>
@@ -927,12 +962,14 @@
           <t>公共管理学院</t>
         </is>
       </c>
-      <c r="D20" t="n">
-        <v>2021</v>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000139</t>
         </is>
       </c>
     </row>
@@ -952,12 +989,14 @@
           <t>公共管理学院</t>
         </is>
       </c>
-      <c r="D21" t="n">
-        <v>2021</v>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000825</t>
         </is>
       </c>
     </row>

--- a/healthman-mock/v2/data/classes/公共管理学院.xlsx
+++ b/healthman-mock/v2/data/classes/公共管理学院.xlsx
@@ -50,6 +50,7 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -483,7 +484,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>000963</t>
+          <t>000195</t>
         </is>
       </c>
     </row>
@@ -510,7 +511,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>001029</t>
+          <t>000128</t>
         </is>
       </c>
     </row>
@@ -537,7 +538,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>000199</t>
+          <t>000016</t>
         </is>
       </c>
     </row>
@@ -564,7 +565,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>000639</t>
+          <t>000137</t>
         </is>
       </c>
     </row>
@@ -591,7 +592,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>000493</t>
+          <t>000096</t>
         </is>
       </c>
     </row>
@@ -618,7 +619,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>000696</t>
+          <t>000095</t>
         </is>
       </c>
     </row>
@@ -645,7 +646,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>000118</t>
+          <t>000108</t>
         </is>
       </c>
     </row>
@@ -672,7 +673,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>000307</t>
+          <t>000213</t>
         </is>
       </c>
     </row>
@@ -699,7 +700,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>000720</t>
+          <t>000083</t>
         </is>
       </c>
     </row>
@@ -726,7 +727,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>000683</t>
+          <t>000033</t>
         </is>
       </c>
     </row>
@@ -753,7 +754,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>000619</t>
+          <t>000231</t>
         </is>
       </c>
     </row>
@@ -780,7 +781,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>000996</t>
+          <t>000083</t>
         </is>
       </c>
     </row>
@@ -807,7 +808,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>000181</t>
+          <t>000007</t>
         </is>
       </c>
     </row>
@@ -834,7 +835,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>000219</t>
+          <t>000199</t>
         </is>
       </c>
     </row>
@@ -861,7 +862,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>001009</t>
+          <t>000115</t>
         </is>
       </c>
     </row>
@@ -888,7 +889,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>001031</t>
+          <t>000114</t>
         </is>
       </c>
     </row>
@@ -915,7 +916,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>000781</t>
+          <t>000007</t>
         </is>
       </c>
     </row>
@@ -942,7 +943,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>000575</t>
+          <t>000194</t>
         </is>
       </c>
     </row>
@@ -969,7 +970,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>000139</t>
+          <t>000033</t>
         </is>
       </c>
     </row>
@@ -996,7 +997,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>000825</t>
+          <t>000027</t>
         </is>
       </c>
     </row>
